--- a/individual_case_outputs/avey/2.xlsx
+++ b/individual_case_outputs/avey/2.xlsx
@@ -603,7 +603,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>coronary heart disease</t>
+          <t>unstable angina</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>myocardial infarction</t>
+          <t>unstable angina</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -843,11 +843,7 @@
           <t>cardia arrhythmias</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>unstable angina</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
